--- a/output.xlsx
+++ b/output.xlsx
@@ -871,7 +871,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -892,22 +892,12 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>S No_x</t>
+          <t>Average Statements</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Average Statements</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
           <t>Average Reasons</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>S No_y</t>
         </is>
       </c>
     </row>
@@ -921,16 +911,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>12.67</v>
       </c>
       <c r="D2" t="n">
-        <v>12.67</v>
-      </c>
-      <c r="E2" t="n">
         <v>16</v>
-      </c>
-      <c r="F2" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -943,16 +927,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>11.33</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>9</v>
-      </c>
-      <c r="E3" t="n">
         <v>10</v>
-      </c>
-      <c r="F3" t="n">
-        <v>11.33</v>
       </c>
     </row>
     <row r="4">
@@ -965,16 +943,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>7.33</v>
       </c>
       <c r="D4" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="E4" t="n">
         <v>7.67</v>
-      </c>
-      <c r="F4" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -987,16 +959,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>13.33</v>
+        <v>7.33</v>
       </c>
       <c r="D5" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="E5" t="n">
         <v>6.33</v>
-      </c>
-      <c r="F5" t="n">
-        <v>13.33</v>
       </c>
     </row>
     <row r="6">
@@ -1009,16 +975,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="n">
         <v>5.67</v>
-      </c>
-      <c r="F6" t="n">
-        <v>18</v>
       </c>
     </row>
     <row r="7">
@@ -1031,16 +991,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>10.5</v>
+        <v>4.5</v>
       </c>
       <c r="D7" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E7" t="n">
         <v>5.5</v>
-      </c>
-      <c r="F7" t="n">
-        <v>10.5</v>
       </c>
     </row>
     <row r="8">
@@ -1053,16 +1007,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>20.5</v>
+        <v>4.5</v>
       </c>
       <c r="D8" t="n">
         <v>4.5</v>
-      </c>
-      <c r="E8" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F8" t="n">
-        <v>20.5</v>
       </c>
     </row>
     <row r="9">
@@ -1075,16 +1023,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
-      </c>
-      <c r="E9" t="n">
         <v>4.5</v>
-      </c>
-      <c r="F9" t="n">
-        <v>5.5</v>
       </c>
     </row>
   </sheetData>
